--- a/params_OroLomaTracertest.xlsx
+++ b/params_OroLomaTracertest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B1F36D-CFB3-4766-A693-81AB77BB2881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7187C8-AD20-4AD5-B820-B3BB1647F830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15450" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -783,7 +783,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
